--- a/Meeting Minutes/1.xlsx
+++ b/Meeting Minutes/1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chung/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="840" windowWidth="24960" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="645" yWindow="840" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -116,7 +111,7 @@
     <t>Git hub</t>
   </si>
   <si>
-    <t>Source Tree Client</t>
+    <t xml:space="preserve">Source Tree Client </t>
   </si>
 </sst>
 </file>
@@ -445,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,15 +454,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +474,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -490,7 +485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,7 +496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,7 +507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -523,7 +518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -534,7 +529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -545,7 +540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -554,7 +549,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -563,19 +558,19 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -584,19 +579,19 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
